--- a/Data_preprocess/PCA_Result.xlsx
+++ b/Data_preprocess/PCA_Result.xlsx
@@ -1,45 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Big_Data_Test\Data_preprocess\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC693E-28A9-4CCC-BC0A-54253F2E36B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="resultofPCA" sheetId="1" r:id="rId1"/>
+    <sheet name="resultofPCA1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>主成分1</t>
   </si>
   <si>
     <t>主成分2</t>
   </si>
-  <si>
-    <t>主成分3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -47,15 +38,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -101,23 +85,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -159,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,27 +167,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,24 +201,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,58 +376,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="4" width="13.875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.134004327863702</v>
+        <v>2.134004327863701</v>
       </c>
       <c r="C2">
-        <v>-0.61945283828286868</v>
-      </c>
-      <c r="D2">
-        <v>-0.81714437458110967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.6194528382828706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.96760448636247087</v>
+        <v>0.9676044863624688</v>
       </c>
       <c r="C3">
-        <v>-0.29465410500128753</v>
-      </c>
-      <c r="D3">
-        <v>-1.3364026405720959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.2946541050012896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -495,181 +421,142 @@
         <v>1.65672931905377</v>
       </c>
       <c r="C4">
-        <v>-1.726725371904176</v>
-      </c>
-      <c r="D4">
-        <v>-0.28179152071250918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.726725371904177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.639500666744208</v>
+        <v>1.639500666744209</v>
       </c>
       <c r="C5">
-        <v>0.81613752911903936</v>
-      </c>
-      <c r="D5">
-        <v>-0.7957810231102922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.8161375291190376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.954003992627324</v>
+        <v>3.954003992627325</v>
       </c>
       <c r="C6">
-        <v>-0.46566616442827802</v>
-      </c>
-      <c r="D6">
-        <v>0.62256549035636566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.4656661644282774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.7554552477764664</v>
+        <v>4.755455247776466</v>
       </c>
       <c r="C7">
-        <v>-0.32486698642030221</v>
-      </c>
-      <c r="D7">
-        <v>0.94978162444723857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.3248669864203012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.9290353594127501</v>
+        <v>5.929035359412756</v>
       </c>
       <c r="C8">
-        <v>0.37717979987887529</v>
-      </c>
-      <c r="D8">
-        <v>1.8815155953657119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3771797998788778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.3529224590443851</v>
+        <v>3.352922459044387</v>
       </c>
       <c r="C9">
-        <v>0.39575612215827849</v>
-      </c>
-      <c r="D9">
-        <v>-0.69237078127750307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.3957561221582768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.8003184482521197</v>
+        <v>4.800318448252127</v>
       </c>
       <c r="C10">
         <v>1.876600198460324</v>
       </c>
-      <c r="D10">
-        <v>0.57210666752181905</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.2163524958338079</v>
+        <v>3.216352495833807</v>
       </c>
       <c r="C11">
-        <v>-0.81107251957595627</v>
-      </c>
-      <c r="D11">
-        <v>0.48283827946328012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.8110725195759557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.3107715539138969</v>
+        <v>2.310771553913896</v>
       </c>
       <c r="C12">
-        <v>-0.47851359985976361</v>
-      </c>
-      <c r="D12">
-        <v>-0.82622882441375045</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.4785135998597652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.93871406289457671</v>
+        <v>0.9387140628945762</v>
       </c>
       <c r="C13">
-        <v>3.9483425019349039E-2</v>
-      </c>
-      <c r="D13">
-        <v>-1.0662179030447601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.03948342501934711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-3.2573567273281352</v>
+        <v>-3.257356727328136</v>
       </c>
       <c r="C14">
-        <v>-0.25018734019796868</v>
-      </c>
-      <c r="D14">
-        <v>0.2499665373716401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.2501873401979679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.4390025677324989</v>
+        <v>-1.439002567732503</v>
       </c>
       <c r="C15">
-        <v>-1.3452811726427329</v>
-      </c>
-      <c r="D15">
-        <v>-1.246078130446717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.345281172642735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-2.1684029071165001</v>
+        <v>-2.1684029071165</v>
       </c>
       <c r="C16">
-        <v>1.1414654451827899</v>
-      </c>
-      <c r="D16">
-        <v>-0.2679156617466954</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.14146544518279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -677,27 +564,21 @@
         <v>-1.51905194322277</v>
       </c>
       <c r="C17">
-        <v>0.22735194974461301</v>
-      </c>
-      <c r="D17">
-        <v>-0.1244464024609197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.227351949744613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.4149336027489461</v>
+        <v>-1.414933602748942</v>
       </c>
       <c r="C18">
-        <v>3.0533017751048588</v>
-      </c>
-      <c r="D18">
-        <v>-0.51760783127901688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3.053301775104858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -705,127 +586,98 @@
         <v>-2.341369807246044</v>
       </c>
       <c r="C19">
-        <v>0.19412695726493931</v>
-      </c>
-      <c r="D19">
-        <v>-0.5482020012709713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.1941269572649385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.55731178431451678</v>
+        <v>-0.5573117843145183</v>
       </c>
       <c r="C20">
-        <v>-0.22916622530965661</v>
-      </c>
-      <c r="D20">
-        <v>-1.407490059568123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.229166225309659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-2.8861186273179391</v>
+        <v>-2.88611862731794</v>
       </c>
       <c r="C21">
-        <v>-0.86777778543765505</v>
-      </c>
-      <c r="D21">
-        <v>0.61299387292806218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.8677777854376537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-2.4626782238049518</v>
+        <v>-2.462678223804954</v>
       </c>
       <c r="C22">
-        <v>-0.91719479343027788</v>
-      </c>
-      <c r="D22">
-        <v>1.1847720845693821</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.9171947934302752</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-3.6547856199442221</v>
+        <v>-3.654785619944222</v>
       </c>
       <c r="C23">
-        <v>0.69584611538089503</v>
-      </c>
-      <c r="D23">
-        <v>0.52108837832345345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.6958461153808961</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-3.9093476778375802</v>
+        <v>-3.909347677837582</v>
       </c>
       <c r="C24">
-        <v>-0.64954975031350259</v>
-      </c>
-      <c r="D24">
-        <v>0.42892891873464889</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-0.6495497503135013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-3.904686909450946</v>
+        <v>-3.904686909450943</v>
       </c>
       <c r="C25">
-        <v>1.6788763491593821</v>
-      </c>
-      <c r="D25">
-        <v>0.69063559027555088</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1.678876349159383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-2.0372465366913688</v>
+        <v>-2.037246536691371</v>
       </c>
       <c r="C26">
-        <v>-1.009714037325081</v>
-      </c>
-      <c r="D26">
-        <v>0.54357814165123985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+        <v>-1.00971403732508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-4.1031194850230177</v>
+        <v>-4.103119485023019</v>
       </c>
       <c r="C27">
-        <v>-0.50630297634384303</v>
-      </c>
-      <c r="D27">
-        <v>1.1869059734760909</v>
+        <v>-0.5063029763438407</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>